--- a/REGULAR/BUDGET/FELICIDARIO, PAMELA.xlsx
+++ b/REGULAR/BUDGET/FELICIDARIO, PAMELA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\BUDGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BBF327-0CC4-4A80-868B-F7F6F0A93DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12160922-E98A-4EA8-B802-4FA388B558D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -243,10 +243,10 @@
     <t>WITHOUT PAY 2/16 - 5/31/ 2021</t>
   </si>
   <si>
-    <t>FL(4-0-0)</t>
-  </si>
-  <si>
-    <t>11/28, 12/12,19,29</t>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>11/28, 12/12,19, 23, 29</t>
   </si>
 </sst>
 </file>
@@ -2705,9 +2705,9 @@
   <dimension ref="A2:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A51" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A45" activePane="bottomLeft"/>
       <selection activeCell="M8" sqref="M8"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2874,7 +2874,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>22.125</v>
+        <v>21.125</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4002,7 +4002,7 @@
         <v>1.25</v>
       </c>
       <c r="D61" s="39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>

--- a/REGULAR/BUDGET/FELICIDARIO, PAMELA.xlsx
+++ b/REGULAR/BUDGET/FELICIDARIO, PAMELA.xlsx
@@ -968,7 +968,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1011,7 +1011,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,7 +1075,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1135,7 +1135,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,7 +1201,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1264,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,7 +1362,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1421,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1486,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1529,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1604,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1790,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1856,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1914,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1980,7 +1980,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2036,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2111,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2154,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2220,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,7 +2276,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2722,9 +2722,9 @@
   <dimension ref="A2:K143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A58" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,7 +2891,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.724999999999994</v>
+        <v>30.974999999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2901,7 +2901,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>49.875</v>
+        <v>51.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4118,7 +4118,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>53</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>54</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>54</v>
@@ -4214,7 +4214,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>68</v>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4260,7 +4260,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>70</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>53</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>54</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>54</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4382,16 +4382,18 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4418,7 +4420,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45292</v>
+        <v>45322</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4454,7 +4456,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45352</v>
+        <v>45324</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4472,7 +4474,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45383</v>
+        <v>45325</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4490,7 +4492,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45413</v>
+        <v>45326</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4508,7 +4510,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45444</v>
+        <v>45327</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4526,7 +4528,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45474</v>
+        <v>45328</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4544,7 +4546,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45505</v>
+        <v>45329</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4562,7 +4564,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45536</v>
+        <v>45330</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4580,7 +4582,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45566</v>
+        <v>45331</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4598,7 +4600,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45597</v>
+        <v>45332</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4616,7 +4618,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45627</v>
+        <v>45333</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4634,7 +4636,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45658</v>
+        <v>45334</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4652,7 +4654,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45689</v>
+        <v>45335</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4670,7 +4672,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45717</v>
+        <v>45336</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4688,7 +4690,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45748</v>
+        <v>45337</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>

--- a/REGULAR/BUDGET/FELICIDARIO, PAMELA.xlsx
+++ b/REGULAR/BUDGET/FELICIDARIO, PAMELA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
   <si>
     <t>PERIOD</t>
   </si>
@@ -265,6 +265,42 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-20)</t>
+  </si>
+  <si>
+    <t>UT(0-0-45)</t>
+  </si>
+  <si>
+    <t>UT(0-0-30)</t>
+  </si>
+  <si>
+    <t>UT(0-2-32)</t>
+  </si>
+  <si>
+    <t>UT(0-0-25)</t>
+  </si>
+  <si>
+    <t>UT(0-1-54)</t>
+  </si>
+  <si>
+    <t>UT(0-5-47)</t>
+  </si>
+  <si>
+    <t>UT(0-3-29)</t>
+  </si>
+  <si>
+    <t>UT(0-0-27)</t>
+  </si>
+  <si>
+    <t>UT(0-5-2)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-3-51)</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1004,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1011,7 +1047,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1075,7 +1111,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1135,7 +1171,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1201,7 +1237,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1264,7 +1300,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,7 +1398,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1457,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1522,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1565,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1640,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1826,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1892,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1950,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1980,7 +2016,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2072,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2147,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2190,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2256,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,7 +2312,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2408,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K143" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K151" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2719,12 +2755,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K143"/>
+  <dimension ref="A2:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,7 +2927,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>30.974999999999994</v>
+        <v>26.846999999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4100,11 +4136,15 @@
       <c r="A65" s="40">
         <v>44957</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
-      <c r="D65" s="39"/>
+      <c r="D65" s="39">
+        <v>1</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
@@ -4114,38 +4154,36 @@
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="20"/>
+      <c r="K65" s="49">
+        <v>44951</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40">
-        <v>44985</v>
-      </c>
+      <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D66" s="39"/>
+        <v>88</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="39">
+        <v>0.48099999999999998</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G66" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="49">
-        <v>44973</v>
-      </c>
+      <c r="K66" s="49"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C67" s="13">
         <v>1.25</v>
@@ -4157,92 +4195,86 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H67" s="39">
-        <v>1</v>
-      </c>
+      <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
       <c r="K67" s="49">
-        <v>44999</v>
+        <v>44973</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
+      <c r="A68" s="40">
+        <v>45016</v>
+      </c>
       <c r="B68" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="13"/>
+        <v>54</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H68" s="39"/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H68" s="39">
+        <v>1</v>
+      </c>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
       <c r="K68" s="49">
-        <v>44988</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
-        <v>45046</v>
-      </c>
+      <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="13">
-        <v>1.25</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C69" s="13"/>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H69" s="39">
-        <v>1</v>
-      </c>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
       <c r="K69" s="49">
-        <v>45033</v>
+        <v>44988</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40">
-        <v>45077</v>
-      </c>
+      <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C70" s="13">
-        <v>1.25</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C70" s="13"/>
       <c r="D70" s="39">
-        <v>2</v>
+        <v>0.629</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="K70" s="49"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45107</v>
-      </c>
-      <c r="B71" s="20"/>
+        <v>45046</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
@@ -4253,48 +4285,48 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H71" s="39"/>
+      <c r="H71" s="39">
+        <v>1</v>
+      </c>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="20"/>
+      <c r="K71" s="49">
+        <v>45033</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40">
-        <v>45138</v>
-      </c>
+      <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="13">
-        <v>1.25</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C72" s="13"/>
       <c r="D72" s="39">
-        <v>3</v>
+        <v>5.6000000000000015E-2</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="K72" s="49"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
-      <c r="D73" s="39"/>
+      <c r="D73" s="39">
+        <v>2</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
@@ -4304,71 +4336,67 @@
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="49">
-        <v>45169</v>
+      <c r="K73" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="40">
-        <v>45199</v>
-      </c>
+      <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C74" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D74" s="39"/>
+        <v>84</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="39">
+        <v>0.435</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H74" s="39">
-        <v>1</v>
-      </c>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="49">
-        <v>45173</v>
-      </c>
+      <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45230</v>
+        <v>45107</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
       </c>
-      <c r="D75" s="39"/>
+      <c r="D75" s="39">
+        <v>0.72299999999999998</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H75" s="39">
-        <v>1</v>
-      </c>
+      <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="49">
-        <v>45202</v>
-      </c>
+      <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B76" s="20"/>
+        <v>45138</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
-      <c r="D76" s="39"/>
+      <c r="D76" s="39">
+        <v>3</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13">
@@ -4378,22 +4406,24 @@
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="20"/>
+      <c r="K76" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
-        <v>45291</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D77" s="39"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="39">
+        <v>0.23700000000000002</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4401,30 +4431,38 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="A78" s="40">
+        <v>45169</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="49">
+        <v>45169</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B79" s="20"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C79" s="13"/>
-      <c r="D79" s="39"/>
+      <c r="D79" s="39">
+        <v>5.2000000000000011E-2</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13" t="str">
@@ -4434,33 +4472,43 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="49"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+        <v>45199</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="39"/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H80" s="39">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
+      <c r="K80" s="49">
+        <v>45173</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
-        <v>45324</v>
-      </c>
-      <c r="B81" s="20"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C81" s="13"/>
-      <c r="D81" s="39"/>
+      <c r="D81" s="39">
+        <v>0.317</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
@@ -4470,33 +4518,43 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="49"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45325</v>
-      </c>
-      <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+        <v>45230</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="39"/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H82" s="39">
+        <v>1</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="49">
+        <v>45202</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
-        <v>45326</v>
-      </c>
-      <c r="B83" s="20"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C83" s="13"/>
-      <c r="D83" s="39"/>
+      <c r="D83" s="39">
+        <v>6.200000000000002E-2</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
       <c r="G83" s="13" t="str">
@@ -4506,20 +4564,26 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="49"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45327</v>
-      </c>
-      <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="39"/>
+        <v>45260</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D84" s="39">
+        <v>9.4E-2</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4528,16 +4592,22 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45328</v>
-      </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="39"/>
+        <v>45291</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D85" s="39">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4545,8 +4615,8 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
-        <v>45329</v>
+      <c r="A86" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4564,7 +4634,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45330</v>
+        <v>45322</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4582,7 +4652,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45331</v>
+        <v>45323</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4600,7 +4670,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45332</v>
+        <v>45324</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4618,7 +4688,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45333</v>
+        <v>45325</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4636,7 +4706,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45334</v>
+        <v>45326</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4654,7 +4724,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45335</v>
+        <v>45327</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4672,7 +4742,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45336</v>
+        <v>45328</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4690,7 +4760,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45337</v>
+        <v>45329</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4707,7 +4777,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45330</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4723,7 +4795,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45331</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -4739,7 +4813,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45332</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -4755,7 +4831,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45333</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -4771,7 +4849,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45334</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -4787,7 +4867,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45335</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -4803,7 +4885,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45336</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -4819,7 +4903,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45337</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5475,20 +5561,148 @@
       <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="41"/>
-      <c r="B143" s="15"/>
-      <c r="C143" s="42"/>
-      <c r="D143" s="43"/>
+      <c r="A143" s="40"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H143" s="43"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
       <c r="I143" s="9"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="15"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="40"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="40"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="40"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="40"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="40"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="39"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="40"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="39"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="40"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="39"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="41"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="42"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="43"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5598,13 +5812,15 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11">
+        <v>3</v>
+      </c>
       <c r="F3" s="11">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>4.4000000000000004E-2</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/REGULAR/BUDGET/FELICIDARIO, PAMELA.xlsx
+++ b/REGULAR/BUDGET/FELICIDARIO, PAMELA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B1E7E2-22CB-40B7-8E0C-291BAF3B9BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -301,12 +302,18 @@
   </si>
   <si>
     <t>UT(0-3-51)</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>1/24-25/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1004,7 +1011,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1047,7 +1054,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1111,7 +1118,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1171,7 +1178,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1237,7 +1244,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1307,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1405,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1457,7 +1464,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1529,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1572,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1647,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,7 +1833,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1899,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,7 +1957,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2016,7 +2023,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2079,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2147,7 +2154,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2197,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2263,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2312,7 +2319,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,7 +2398,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2408,25 +2415,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K151" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K151" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2733,7 +2740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2743,7 +2750,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2751,34 +2758,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A85" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2801,7 +2808,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2823,7 +2830,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2845,7 +2852,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2853,7 +2860,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2866,7 +2873,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -2883,7 +2890,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2918,7 +2925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2927,7 +2934,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>26.846999999999994</v>
+        <v>28.096999999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2937,12 +2944,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>51.125</v>
+        <v>50.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2964,7 +2971,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -2984,7 +2991,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43708</v>
       </c>
@@ -3004,7 +3011,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43738</v>
       </c>
@@ -3024,7 +3031,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43769</v>
       </c>
@@ -3044,7 +3051,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43799</v>
       </c>
@@ -3064,7 +3071,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43830</v>
       </c>
@@ -3084,7 +3091,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>47</v>
       </c>
@@ -3102,7 +3109,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43861</v>
       </c>
@@ -3126,7 +3133,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>50</v>
@@ -3146,7 +3153,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43890</v>
       </c>
@@ -3170,7 +3177,7 @@
         <v>43863</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43921</v>
       </c>
@@ -3190,7 +3197,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43951</v>
       </c>
@@ -3210,7 +3217,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43982</v>
       </c>
@@ -3230,7 +3237,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44012</v>
       </c>
@@ -3256,7 +3263,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44043</v>
       </c>
@@ -3280,7 +3287,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>53</v>
@@ -3300,7 +3307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44074</v>
       </c>
@@ -3320,7 +3327,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>44104</v>
       </c>
@@ -3340,7 +3347,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44135</v>
       </c>
@@ -3366,7 +3373,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>57</v>
@@ -3386,7 +3393,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44165</v>
       </c>
@@ -3406,7 +3413,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44196</v>
       </c>
@@ -3430,7 +3437,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>54</v>
@@ -3452,7 +3459,7 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
         <v>48</v>
       </c>
@@ -3470,7 +3477,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>44227</v>
       </c>
@@ -3494,7 +3501,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>62</v>
@@ -3516,7 +3523,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44242</v>
       </c>
@@ -3536,7 +3543,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="50" t="s">
         <v>64</v>
@@ -3554,7 +3561,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44377</v>
       </c>
@@ -3574,7 +3581,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44408</v>
       </c>
@@ -3598,7 +3605,7 @@
         <v>44393</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>53</v>
@@ -3618,7 +3625,7 @@
         <v>44399</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44439</v>
       </c>
@@ -3638,7 +3645,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44469</v>
       </c>
@@ -3658,7 +3665,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44500</v>
       </c>
@@ -3682,7 +3689,7 @@
         <v>44482</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44530</v>
       </c>
@@ -3706,7 +3713,7 @@
         <v>44529</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44561</v>
       </c>
@@ -3726,7 +3733,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
         <v>49</v>
       </c>
@@ -3744,7 +3751,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44592</v>
       </c>
@@ -3764,7 +3771,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44620</v>
       </c>
@@ -3784,7 +3791,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44651</v>
       </c>
@@ -3808,7 +3815,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>54</v>
@@ -3830,7 +3837,7 @@
         <v>44676</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44681</v>
       </c>
@@ -3856,7 +3863,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44712</v>
       </c>
@@ -3880,7 +3887,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44742</v>
       </c>
@@ -3900,7 +3907,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44773</v>
       </c>
@@ -3926,7 +3933,7 @@
         <v>44763</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>54</v>
@@ -3948,7 +3955,7 @@
         <v>44749</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44804</v>
       </c>
@@ -3974,7 +3981,7 @@
         <v>44790</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44834</v>
       </c>
@@ -4000,7 +4007,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44865</v>
       </c>
@@ -4024,7 +4031,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44895</v>
       </c>
@@ -4048,7 +4055,7 @@
         <v>44887</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>74</v>
@@ -4068,7 +4075,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="49"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44896</v>
       </c>
@@ -4094,7 +4101,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>73</v>
@@ -4114,7 +4121,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="48" t="s">
         <v>66</v>
       </c>
@@ -4132,7 +4139,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44957</v>
       </c>
@@ -4158,7 +4165,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>88</v>
@@ -4178,7 +4185,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="49"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44985</v>
       </c>
@@ -4202,7 +4209,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>45016</v>
       </c>
@@ -4228,7 +4235,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>53</v>
@@ -4248,7 +4255,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>86</v>
@@ -4268,7 +4275,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="49"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>45046</v>
       </c>
@@ -4294,7 +4301,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>85</v>
@@ -4314,7 +4321,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="49"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>45077</v>
       </c>
@@ -4340,7 +4347,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>84</v>
@@ -4360,7 +4367,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>45107</v>
       </c>
@@ -4384,7 +4391,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>45138</v>
       </c>
@@ -4410,7 +4417,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>82</v>
@@ -4430,7 +4437,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>45169</v>
       </c>
@@ -4454,7 +4461,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>81</v>
@@ -4474,7 +4481,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="49"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45199</v>
       </c>
@@ -4500,7 +4507,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>80</v>
@@ -4520,7 +4527,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="49"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45230</v>
       </c>
@@ -4546,7 +4553,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>79</v>
@@ -4566,7 +4573,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="49"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45260</v>
       </c>
@@ -4590,7 +4597,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45291</v>
       </c>
@@ -4614,7 +4621,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>76</v>
       </c>
@@ -4632,25 +4639,33 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>45322</v>
       </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="B87" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H87" s="39"/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H87" s="39">
+        <v>2</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K87" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45323</v>
       </c>
@@ -4668,7 +4683,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45324</v>
       </c>
@@ -4686,7 +4701,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45325</v>
       </c>
@@ -4704,7 +4719,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45326</v>
       </c>
@@ -4722,7 +4737,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45327</v>
       </c>
@@ -4740,7 +4755,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45328</v>
       </c>
@@ -4758,7 +4773,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45329</v>
       </c>
@@ -4776,7 +4791,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>45330</v>
       </c>
@@ -4794,7 +4809,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>45331</v>
       </c>
@@ -4812,7 +4827,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>45332</v>
       </c>
@@ -4830,7 +4845,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45333</v>
       </c>
@@ -4848,7 +4863,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>45334</v>
       </c>
@@ -4866,7 +4881,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45335</v>
       </c>
@@ -4884,7 +4899,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>45336</v>
       </c>
@@ -4902,7 +4917,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>45337</v>
       </c>
@@ -4920,7 +4935,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4936,7 +4951,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4952,7 +4967,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4968,7 +4983,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4984,7 +4999,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5000,7 +5015,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5016,7 +5031,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5032,7 +5047,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5048,7 +5063,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5064,7 +5079,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5080,7 +5095,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5096,7 +5111,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5112,7 +5127,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5128,7 +5143,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5144,7 +5159,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5160,7 +5175,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5176,7 +5191,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5192,7 +5207,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5208,7 +5223,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5224,7 +5239,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5240,7 +5255,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5256,7 +5271,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5272,7 +5287,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5288,7 +5303,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5304,7 +5319,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5320,7 +5335,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5336,7 +5351,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5352,7 +5367,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5368,7 +5383,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5384,7 +5399,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5400,7 +5415,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5416,7 +5431,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5432,7 +5447,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5448,7 +5463,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5464,7 +5479,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5480,7 +5495,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5496,7 +5511,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5512,7 +5527,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5528,7 +5543,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5544,7 +5559,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5560,7 +5575,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5576,7 +5591,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -5592,7 +5607,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -5608,7 +5623,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -5624,7 +5639,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5640,7 +5655,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5656,7 +5671,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5672,7 +5687,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5688,7 +5703,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="41"/>
       <c r="B151" s="15"/>
       <c r="C151" s="42"/>
@@ -5719,10 +5734,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5745,28 +5760,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -5779,7 +5794,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5808,7 +5823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5832,17 +5847,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5863,7 +5878,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5890,7 +5905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5916,7 +5931,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5942,7 +5957,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5968,7 +5983,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5994,7 +6009,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6020,7 +6035,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6046,7 +6061,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6072,7 +6087,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6092,7 +6107,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6112,7 +6127,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6132,7 +6147,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6153,7 +6168,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6174,7 +6189,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6195,7 +6210,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6216,7 +6231,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6237,7 +6252,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6258,7 +6273,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6279,7 +6294,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6300,7 +6315,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6321,7 +6336,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6342,7 +6357,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6363,7 +6378,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6384,7 +6399,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6405,7 +6420,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6426,7 +6441,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6447,7 +6462,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6468,7 +6483,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6489,7 +6504,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6510,7 +6525,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6531,7 +6546,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6552,7 +6567,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6561,7 +6576,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6570,7 +6585,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6579,7 +6594,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6588,7 +6603,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6597,7 +6612,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6606,7 +6621,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6615,7 +6630,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6624,7 +6639,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6633,7 +6648,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6642,7 +6657,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6651,7 +6666,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6660,7 +6675,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6669,7 +6684,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6678,7 +6693,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6687,7 +6702,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6696,7 +6711,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6705,7 +6720,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6714,7 +6729,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6723,7 +6738,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6732,7 +6747,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6741,7 +6756,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6750,7 +6765,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6759,7 +6774,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6768,7 +6783,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6777,7 +6792,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6786,7 +6801,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6795,7 +6810,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6804,7 +6819,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6813,7 +6828,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
